--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H2">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I2">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J2">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>952.0441956415779</v>
+        <v>986.5760334032461</v>
       </c>
       <c r="R2">
-        <v>952.0441956415779</v>
+        <v>3946.304133612985</v>
       </c>
       <c r="S2">
-        <v>0.01397823628245881</v>
+        <v>0.01298576618571515</v>
       </c>
       <c r="T2">
-        <v>0.01397823628245881</v>
+        <v>0.006628493692030541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H3">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I3">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J3">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>1322.597997710626</v>
+        <v>1454.528337600598</v>
       </c>
       <c r="R3">
-        <v>1322.597997710626</v>
+        <v>8727.170025603589</v>
       </c>
       <c r="S3">
-        <v>0.0194188330786969</v>
+        <v>0.01914516901188305</v>
       </c>
       <c r="T3">
-        <v>0.0194188330786969</v>
+        <v>0.01465877679605739</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H4">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I4">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J4">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>643.5535279893843</v>
+        <v>687.8125390977491</v>
       </c>
       <c r="R4">
-        <v>643.5535279893843</v>
+        <v>4126.875234586494</v>
       </c>
       <c r="S4">
-        <v>0.009448871508095693</v>
+        <v>0.009053304063667359</v>
       </c>
       <c r="T4">
-        <v>0.009448871508095693</v>
+        <v>0.006931793783265551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H5">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I5">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J5">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>493.0313417671722</v>
+        <v>506.183168189699</v>
       </c>
       <c r="R5">
-        <v>493.0313417671722</v>
+        <v>3037.099009138194</v>
       </c>
       <c r="S5">
-        <v>0.007238853638758809</v>
+        <v>0.006662614990333224</v>
       </c>
       <c r="T5">
-        <v>0.007238853638758809</v>
+        <v>0.005101327962199838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H6">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I6">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J6">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>500.0318700258188</v>
+        <v>533.1531712357371</v>
       </c>
       <c r="R6">
-        <v>500.0318700258188</v>
+        <v>3198.919027414423</v>
       </c>
       <c r="S6">
-        <v>0.007341637772677558</v>
+        <v>0.007017606538603207</v>
       </c>
       <c r="T6">
-        <v>0.007341637772677558</v>
+        <v>0.005373132398470242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H7">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I7">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J7">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>224.2942495872981</v>
+        <v>231.2313605898855</v>
       </c>
       <c r="R7">
-        <v>224.2942495872981</v>
+        <v>924.9254423595421</v>
       </c>
       <c r="S7">
-        <v>0.003293164363462373</v>
+        <v>0.003043573208510867</v>
       </c>
       <c r="T7">
-        <v>0.003293164363462373</v>
+        <v>0.001553570696201196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H8">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I8">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J8">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>13196.56383233249</v>
+        <v>14384.90185632281</v>
       </c>
       <c r="R8">
-        <v>13196.56383233249</v>
+        <v>86309.4111379369</v>
       </c>
       <c r="S8">
-        <v>0.1937564329569636</v>
+        <v>0.1893406750073738</v>
       </c>
       <c r="T8">
-        <v>0.1937564329569636</v>
+        <v>0.144971438571539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H9">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I9">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J9">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>18332.91876701314</v>
+        <v>21207.94208982468</v>
       </c>
       <c r="R9">
-        <v>18332.91876701314</v>
+        <v>190871.4788084221</v>
       </c>
       <c r="S9">
-        <v>0.2691701408879864</v>
+        <v>0.2791486595398419</v>
       </c>
       <c r="T9">
-        <v>0.2691701408879864</v>
+        <v>0.3206013399965297</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H10">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I10">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J10">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>8920.484207050384</v>
+        <v>10028.74135948655</v>
       </c>
       <c r="R10">
-        <v>8920.484207050384</v>
+        <v>90258.67223537897</v>
       </c>
       <c r="S10">
-        <v>0.1309735793473987</v>
+        <v>0.1320028928556729</v>
       </c>
       <c r="T10">
-        <v>0.1309735793473987</v>
+        <v>0.1516048989907717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H11">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I11">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J11">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>6834.052035353722</v>
+        <v>7380.470383629539</v>
       </c>
       <c r="R11">
-        <v>6834.052035353722</v>
+        <v>66424.23345266585</v>
       </c>
       <c r="S11">
-        <v>0.1003398734576782</v>
+        <v>0.09714513580043072</v>
       </c>
       <c r="T11">
-        <v>0.1003398734576782</v>
+        <v>0.1115708768335237</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H12">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I12">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J12">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>6931.088410816334</v>
+        <v>7773.710066884051</v>
       </c>
       <c r="R12">
-        <v>6931.088410816334</v>
+        <v>69963.39060195646</v>
       </c>
       <c r="S12">
-        <v>0.1017645944847264</v>
+        <v>0.1023211368472761</v>
       </c>
       <c r="T12">
-        <v>0.1017645944847264</v>
+        <v>0.1175154974316578</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H13">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I13">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J13">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N13">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O13">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P13">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q13">
-        <v>3109.008379499885</v>
+        <v>3371.499322475383</v>
       </c>
       <c r="R13">
-        <v>3109.008379499885</v>
+        <v>20228.9959348523</v>
       </c>
       <c r="S13">
-        <v>0.04564751713391556</v>
+        <v>0.04437722021883682</v>
       </c>
       <c r="T13">
-        <v>0.04564751713391556</v>
+        <v>0.03397806337534296</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H14">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I14">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J14">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N14">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O14">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P14">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q14">
-        <v>20.48641409624582</v>
+        <v>9.584766443054001</v>
       </c>
       <c r="R14">
-        <v>20.48641409624582</v>
+        <v>57.508598658324</v>
       </c>
       <c r="S14">
-        <v>0.0003007884908374867</v>
+        <v>0.0001261590914030594</v>
       </c>
       <c r="T14">
-        <v>0.0003007884908374867</v>
+        <v>9.659554117923964E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H15">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I15">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J15">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N15">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P15">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q15">
-        <v>28.46011812057326</v>
+        <v>14.13100858796867</v>
       </c>
       <c r="R15">
-        <v>28.46011812057326</v>
+        <v>127.179077291718</v>
       </c>
       <c r="S15">
-        <v>0.0004178611219282424</v>
+        <v>0.0001859988153763417</v>
       </c>
       <c r="T15">
-        <v>0.0004178611219282424</v>
+        <v>0.0002136190427914675</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H16">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I16">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J16">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N16">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O16">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P16">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q16">
-        <v>13.84820592137086</v>
+        <v>6.682224502367667</v>
       </c>
       <c r="R16">
-        <v>13.84820592137086</v>
+        <v>60.140020521309</v>
       </c>
       <c r="S16">
-        <v>0.0002033240634660022</v>
+        <v>8.795450330257112E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002033240634660022</v>
+        <v>0.0001010154648924934</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H17">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I17">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J17">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N17">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O17">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P17">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q17">
-        <v>10.60921780323796</v>
+        <v>4.917661974584333</v>
       </c>
       <c r="R17">
-        <v>10.60921780323796</v>
+        <v>44.258957771259</v>
       </c>
       <c r="S17">
-        <v>0.0001557681396563648</v>
+        <v>6.472852210087383E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001557681396563648</v>
+        <v>7.434049998930144E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H18">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I18">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J18">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N18">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O18">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P18">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q18">
-        <v>10.75985757548347</v>
+        <v>5.179680482446335</v>
       </c>
       <c r="R18">
-        <v>10.75985757548347</v>
+        <v>46.61712434201701</v>
       </c>
       <c r="S18">
-        <v>0.0001579798839636388</v>
+        <v>6.817732986046309E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001579798839636388</v>
+        <v>7.830144463770995E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H19">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I19">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J19">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N19">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O19">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P19">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q19">
-        <v>4.826440723537593</v>
+        <v>2.2464549213895</v>
       </c>
       <c r="R19">
-        <v>4.826440723537593</v>
+        <v>13.478729528337</v>
       </c>
       <c r="S19">
-        <v>7.086344220756007E-05</v>
+        <v>2.956886987745184E-05</v>
       </c>
       <c r="T19">
-        <v>7.086344220756007E-05</v>
+        <v>2.26398347999018E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H20">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I20">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J20">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N20">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O20">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P20">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q20">
-        <v>526.6831005610996</v>
+        <v>21.364464668756</v>
       </c>
       <c r="R20">
-        <v>526.6831005610996</v>
+        <v>128.186788012536</v>
       </c>
       <c r="S20">
-        <v>0.007732940192613416</v>
+        <v>0.0002812088815034506</v>
       </c>
       <c r="T20">
-        <v>0.007732940192613416</v>
+        <v>0.0002153116655418125</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H21">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I21">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J21">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N21">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P21">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q21">
-        <v>731.678232396245</v>
+        <v>31.49804802289466</v>
       </c>
       <c r="R21">
-        <v>731.678232396245</v>
+        <v>283.482432206052</v>
       </c>
       <c r="S21">
-        <v>0.01074274835347766</v>
+        <v>0.0004145917527722418</v>
       </c>
       <c r="T21">
-        <v>0.01074274835347766</v>
+        <v>0.0004761572980841043</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H22">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I22">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J22">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N22">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O22">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P22">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q22">
-        <v>356.0220933546761</v>
+        <v>14.89469254548067</v>
       </c>
       <c r="R22">
-        <v>356.0220933546761</v>
+        <v>134.052232909326</v>
       </c>
       <c r="S22">
-        <v>0.005227237312584626</v>
+        <v>0.0001960507738430635</v>
       </c>
       <c r="T22">
-        <v>0.005227237312584626</v>
+        <v>0.000225163684844676</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H23">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I23">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J23">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N23">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O23">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P23">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q23">
-        <v>272.7512829178505</v>
+        <v>10.96147893984733</v>
       </c>
       <c r="R23">
-        <v>272.7512829178505</v>
+        <v>98.653310458626</v>
       </c>
       <c r="S23">
-        <v>0.004004626987300949</v>
+        <v>0.0001442800126326583</v>
       </c>
       <c r="T23">
-        <v>0.004004626987300949</v>
+        <v>0.0001657051316706913</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H24">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I24">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J24">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N24">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O24">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P24">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q24">
-        <v>276.6240652379453</v>
+        <v>11.54551874791534</v>
       </c>
       <c r="R24">
-        <v>276.6240652379453</v>
+        <v>103.909668731238</v>
       </c>
       <c r="S24">
-        <v>0.00406148849287878</v>
+        <v>0.0001519674124213588</v>
       </c>
       <c r="T24">
-        <v>0.00406148849287878</v>
+        <v>0.000174534085667494</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H25">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I25">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J25">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N25">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O25">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P25">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q25">
-        <v>124.0824652379239</v>
+        <v>5.007352769953</v>
       </c>
       <c r="R25">
-        <v>124.0824652379239</v>
+        <v>30.044116619718</v>
       </c>
       <c r="S25">
-        <v>0.001821820904476859</v>
+        <v>6.590907348083247E-05</v>
       </c>
       <c r="T25">
-        <v>0.001821820904476859</v>
+        <v>5.04642396413842E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H26">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I26">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J26">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N26">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O26">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P26">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q26">
-        <v>983.5788473834095</v>
+        <v>536.207016195774</v>
       </c>
       <c r="R26">
-        <v>983.5788473834095</v>
+        <v>3217.242097174644</v>
       </c>
       <c r="S26">
-        <v>0.01444123875140966</v>
+        <v>0.007057802646430462</v>
       </c>
       <c r="T26">
-        <v>0.01444123875140966</v>
+        <v>0.005403909132399532</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H27">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I27">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J27">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N27">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P27">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q27">
-        <v>1366.406538788009</v>
+        <v>790.5404889946619</v>
       </c>
       <c r="R27">
-        <v>1366.406538788009</v>
+        <v>7114.864400951957</v>
       </c>
       <c r="S27">
-        <v>0.02006204496021758</v>
+        <v>0.01040545645023757</v>
       </c>
       <c r="T27">
-        <v>0.02006204496021758</v>
+        <v>0.01195063335328523</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H28">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I28">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J28">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N28">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O28">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P28">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q28">
-        <v>664.8700135845685</v>
+        <v>373.828166106381</v>
       </c>
       <c r="R28">
-        <v>664.8700135845685</v>
+        <v>3364.453494957429</v>
       </c>
       <c r="S28">
-        <v>0.00976184739064946</v>
+        <v>0.004920497756210927</v>
       </c>
       <c r="T28">
-        <v>0.00976184739064946</v>
+        <v>0.005651175888473099</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H29">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I29">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J29">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N29">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O29">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P29">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q29">
-        <v>509.3620664663111</v>
+        <v>275.112061385931</v>
       </c>
       <c r="R29">
-        <v>509.3620664663111</v>
+        <v>2476.008552473379</v>
       </c>
       <c r="S29">
-        <v>0.007478626886212428</v>
+        <v>0.003621151115646044</v>
       </c>
       <c r="T29">
-        <v>0.007478626886212428</v>
+        <v>0.004158880439977009</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H30">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I30">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J30">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N30">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O30">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P30">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q30">
-        <v>516.5944738978532</v>
+        <v>289.770338467953</v>
       </c>
       <c r="R30">
-        <v>516.5944738978532</v>
+        <v>2607.933046211577</v>
       </c>
       <c r="S30">
-        <v>0.007584815548915189</v>
+        <v>0.00381409008074126</v>
       </c>
       <c r="T30">
-        <v>0.007584815548915189</v>
+        <v>0.004380470222457197</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.297097</v>
+      </c>
+      <c r="H31">
+        <v>33.891291</v>
+      </c>
+      <c r="I31">
+        <v>0.03147318916424743</v>
+      </c>
+      <c r="J31">
+        <v>0.03281162449596041</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11.1245335</v>
+      </c>
+      <c r="N31">
+        <v>22.249067</v>
+      </c>
+      <c r="O31">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P31">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q31">
+        <v>125.6749340292495</v>
+      </c>
+      <c r="R31">
+        <v>754.0496041754969</v>
+      </c>
+      <c r="S31">
+        <v>0.001654191114981165</v>
+      </c>
+      <c r="T31">
+        <v>0.001266555459368349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>23.139818</v>
+      </c>
+      <c r="H32">
+        <v>46.279636</v>
+      </c>
+      <c r="I32">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J32">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>47.464142</v>
+      </c>
+      <c r="N32">
+        <v>94.928284</v>
+      </c>
+      <c r="O32">
+        <v>0.2242480928640021</v>
+      </c>
+      <c r="P32">
+        <v>0.1646949584305048</v>
+      </c>
+      <c r="Q32">
+        <v>1098.311607406156</v>
+      </c>
+      <c r="R32">
+        <v>4393.246429624623</v>
+      </c>
+      <c r="S32">
+        <v>0.01445648105157628</v>
+      </c>
+      <c r="T32">
+        <v>0.00737920982781465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>23.139818</v>
+      </c>
+      <c r="H33">
+        <v>46.279636</v>
+      </c>
+      <c r="I33">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J33">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N33">
+        <v>209.931938</v>
+      </c>
+      <c r="O33">
+        <v>0.3306133482671609</v>
+      </c>
+      <c r="P33">
+        <v>0.3642194965005931</v>
+      </c>
+      <c r="Q33">
+        <v>1619.262279235761</v>
+      </c>
+      <c r="R33">
+        <v>9715.573675414567</v>
+      </c>
+      <c r="S33">
+        <v>0.02131347269704982</v>
+      </c>
+      <c r="T33">
+        <v>0.01631897001384514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>23.139818</v>
+      </c>
+      <c r="H34">
+        <v>46.279636</v>
+      </c>
+      <c r="I34">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J34">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>33.09063966666667</v>
+      </c>
+      <c r="N34">
+        <v>99.271919</v>
+      </c>
+      <c r="O34">
+        <v>0.1563393442759357</v>
+      </c>
+      <c r="P34">
+        <v>0.172230908261456</v>
+      </c>
+      <c r="Q34">
+        <v>765.7113793902473</v>
+      </c>
+      <c r="R34">
+        <v>4594.268276341483</v>
+      </c>
+      <c r="S34">
+        <v>0.0100786443232389</v>
+      </c>
+      <c r="T34">
+        <v>0.007716860449208371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>23.139818</v>
+      </c>
+      <c r="H35">
+        <v>46.279636</v>
+      </c>
+      <c r="I35">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J35">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>24.35245633333333</v>
+      </c>
+      <c r="N35">
+        <v>73.05736899999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1150551060062118</v>
+      </c>
+      <c r="P35">
+        <v>0.126750214409196</v>
+      </c>
+      <c r="Q35">
+        <v>563.5114074062806</v>
+      </c>
+      <c r="R35">
+        <v>3381.068444437683</v>
+      </c>
+      <c r="S35">
+        <v>0.007417195565068302</v>
+      </c>
+      <c r="T35">
+        <v>0.005679083541835448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>20.928557209685</v>
-      </c>
-      <c r="H31">
-        <v>20.928557209685</v>
-      </c>
-      <c r="I31">
-        <v>0.06273081770178961</v>
-      </c>
-      <c r="J31">
-        <v>0.06273081770178961</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="N31">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="O31">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="P31">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="Q31">
-        <v>231.7235696554326</v>
-      </c>
-      <c r="R31">
-        <v>231.7235696554326</v>
-      </c>
-      <c r="S31">
-        <v>0.003402244164385284</v>
-      </c>
-      <c r="T31">
-        <v>0.003402244164385284</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>23.139818</v>
+      </c>
+      <c r="H36">
+        <v>46.279636</v>
+      </c>
+      <c r="I36">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J36">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>25.64998233333334</v>
+      </c>
+      <c r="N36">
+        <v>76.94994700000001</v>
+      </c>
+      <c r="O36">
+        <v>0.121185370215801</v>
+      </c>
+      <c r="P36">
+        <v>0.1335036070218497</v>
+      </c>
+      <c r="Q36">
+        <v>593.5359228965488</v>
+      </c>
+      <c r="R36">
+        <v>3561.215537379292</v>
+      </c>
+      <c r="S36">
+        <v>0.007812392006898592</v>
+      </c>
+      <c r="T36">
+        <v>0.005981671438959293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>23.139818</v>
+      </c>
+      <c r="H37">
+        <v>46.279636</v>
+      </c>
+      <c r="I37">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J37">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.1245335</v>
+      </c>
+      <c r="N37">
+        <v>22.249067</v>
+      </c>
+      <c r="O37">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P37">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q37">
+        <v>257.419680524903</v>
+      </c>
+      <c r="R37">
+        <v>1029.678722099612</v>
+      </c>
+      <c r="S37">
+        <v>0.003388275885201413</v>
+      </c>
+      <c r="T37">
+        <v>0.001729521771046726</v>
       </c>
     </row>
   </sheetData>
